--- a/RQ3/result/GB/GB_8.xlsx
+++ b/RQ3/result/GB/GB_8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ml\api-diff\label_data\GB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C0F743-D8F2-4BB2-9356-D6AE3327FAE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292B0FEA-D8A8-46FB-973B-78CAB3CC123D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11145" xr2:uid="{0C38CB4F-AEE5-43E9-99FD-92CDCA2F7B25}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>number</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>why choice this API?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you are not sure of an answer, what is the reason (because the API documentation does not say, or there are no relevant resources on the web, or something else)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>if you solve problem by website, paste the original URL that supports your choice</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -258,95 +246,6 @@
   <si>
     <t>so_title</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Which part do you think spends a lot of time? 1-Understand the problem 2-Use this method to query the time of the question 3-Read and understand the results of the query 4-make a decision</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_time_v2: (tool+doc) </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorry, because of the lack of experience, I forget the specific difference between declared constructors and public constructors.  </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hashtable is thread safe and synchronized</t>
-  </si>
-  <si>
-    <t>https://javahungry.blogspot.com/2014/03/hashmap-vs-hashtable-difference-with-example-java-interview-questions.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API2 writes the characters to the underlying stream directly, more efficient. </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Class.forName() explicitly loads the driver class.DriverManager.registerDriver() registers the driver with the DriverManager. </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://coderanch.com/t/296054/databases/difference-Class-forName-DriverManager-registerDriver</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>API2 releases all of the native screen resources.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>StringBuffer is thread safe and synchronized whereas StringBuilder is not, thats why StringBuilder is more faster than StringBuffer.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.journaldev.com/538/string-vs-stringbuffer-vs-stringbuilder#stringbuffer-vs-stringbuilder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">java.util.LinkedHashMap requires time proportional to the size of the map, regardless of its capacity </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sorry, I cannot understand the exception chaining mechanism clearly.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Returning the whole line is more efficient than returning the next token.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">InputStream </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is used to read binary data, while Reader is used to read text data</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://javarevisited.blogspot.com/2014/04/difference-between-fileinputstream-and-filereader-in-java.html</t>
-  </si>
-  <si>
-    <t>API2  append all of the elements in the specified collection to the end of this list , in the order.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalDateTime  lacks a time zone or offset-from-UTC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/32437550/whats-the-difference-between-instant-and-localdatetime</t>
   </si>
   <si>
     <t>If we only want to close a Java Swing application when a button is clicked, which method should I use?</t>
@@ -365,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,24 +304,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -447,18 +328,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,16 +346,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -789,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9633286-95B1-461A-B199-009C1CB0DEF7}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -806,11 +679,10 @@
     <col min="7" max="8" width="50.375" style="3" customWidth="1"/>
     <col min="9" max="9" width="49.5" style="3" customWidth="1"/>
     <col min="10" max="10" width="31.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -818,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -841,23 +713,8 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -865,22 +722,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -888,17 +745,8 @@
       <c r="J2" s="1">
         <v>129</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -906,22 +754,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I3" s="3">
         <v>3</v>
@@ -929,17 +777,8 @@
       <c r="J3" s="3">
         <v>240</v>
       </c>
-      <c r="K3" s="3">
-        <v>359</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -947,22 +786,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
@@ -970,17 +809,8 @@
       <c r="J4" s="1">
         <v>164</v>
       </c>
-      <c r="L4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -988,22 +818,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -1011,14 +841,8 @@
       <c r="J5" s="3">
         <v>136</v>
       </c>
-      <c r="L5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1026,22 +850,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -1049,17 +873,8 @@
       <c r="J6" s="1">
         <v>365</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1067,37 +882,31 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="6">
+        <v>51</v>
+      </c>
+      <c r="I7" s="5">
         <v>2</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>125</v>
       </c>
-      <c r="L7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1105,22 +914,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -1128,17 +937,8 @@
       <c r="J8" s="1">
         <v>249</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1146,37 +946,31 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="6">
+        <v>51</v>
+      </c>
+      <c r="I9" s="5">
         <v>1</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>215</v>
       </c>
-      <c r="L9" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1184,22 +978,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
@@ -1207,14 +1001,8 @@
       <c r="J10" s="1">
         <v>200</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1222,37 +1010,31 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="6">
+        <v>51</v>
+      </c>
+      <c r="I11" s="5">
         <v>1</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>102</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1260,22 +1042,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1283,17 +1065,8 @@
       <c r="J12" s="1">
         <v>260</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1301,43 +1074,33 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>2</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>115</v>
-      </c>
-      <c r="L13" t="s">
-        <v>77</v>
-      </c>
-      <c r="O13" s="6">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="N6" r:id="rId1" xr:uid="{06D9C035-D8F4-4EFD-A8C9-7D7212C83F83}"/>
-    <hyperlink ref="L12" r:id="rId2" display="http://javarevisited.blogspot.sg/2012/08/convert-inputstream-to-string-java-example-tutorial.html" xr:uid="{4EFFAC65-3CAF-426D-A6DB-31D29BFF414D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RQ3/result/GB/GB_8.xlsx
+++ b/RQ3/result/GB/GB_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292B0FEA-D8A8-46FB-973B-78CAB3CC123D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CB39E0-8851-4918-BFBC-8086202BF9FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11145" xr2:uid="{0C38CB4F-AEE5-43E9-99FD-92CDCA2F7B25}"/>
   </bookViews>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -257,6 +253,10 @@
   </si>
   <si>
     <t>When developing a JDBC driver, which one should be used if considering the exception chaining mechanism?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_time:</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -665,7 +665,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:X1048576"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -722,22 +722,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -754,22 +754,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" s="3">
         <v>3</v>
@@ -786,22 +786,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
@@ -818,22 +818,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -850,22 +850,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -882,22 +882,22 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
@@ -914,22 +914,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -946,22 +946,22 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
@@ -978,22 +978,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
@@ -1010,22 +1010,22 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -1042,22 +1042,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1074,22 +1074,22 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
